--- a/Downer/41535571/zres_siteapp_NEW.xlsx
+++ b/Downer/41535571/zres_siteapp_NEW.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\41535571\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7F9BBF-5727-4518-952D-1A40DA7B2B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31405DC-FEE9-4273-9A19-EA7545720649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="330" windowWidth="28890" windowHeight="19710" xr2:uid="{484357A6-E8EE-4CFD-B5D3-FC42F38F2F05}"/>
+    <workbookView xWindow="10740" yWindow="2280" windowWidth="27285" windowHeight="18495" xr2:uid="{484357A6-E8EE-4CFD-B5D3-FC42F38F2F05}"/>
   </bookViews>
   <sheets>
     <sheet name="zres_siteapp_NEW" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">zres_siteapp_NEW!$A$1:$G$81</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="149">
   <si>
     <t>Id</t>
   </si>
@@ -41,13 +57,439 @@
   </si>
   <si>
     <t>Postfix</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>itp</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Verification Activity: Activity - H</t>
+  </si>
+  <si>
+    <t>Verification Activity: By - SE</t>
+  </si>
+  <si>
+    <t>Downer Signature - H</t>
+  </si>
+  <si>
+    <t>Engineer Rep Signature - I</t>
+  </si>
+  <si>
+    <t>signoff</t>
+  </si>
+  <si>
+    <t>AUTHORITY HOLDPOINT</t>
+  </si>
+  <si>
+    <t>Engineer Rep Signature - R</t>
+  </si>
+  <si>
+    <t>MSQA - I</t>
+  </si>
+  <si>
+    <t>cab42782-a0da-4a33-ba7b-d0323d6823f4</t>
+  </si>
+  <si>
+    <t>30b82867-c9c1-42ea-8ebb-cdcd19072387</t>
+  </si>
+  <si>
+    <t>Frequency - Upon Discovery (May not be Applicable)</t>
+  </si>
+  <si>
+    <t>Verification Activity: By - PE</t>
+  </si>
+  <si>
+    <t>a94b7c9f-d69e-4f87-a61e-b715b2673503</t>
+  </si>
+  <si>
+    <t>fd4f12f9-df3b-44bb-8128-52d989d42d3c</t>
+  </si>
+  <si>
+    <t>72a70df0-d7b7-5706-be30-8484485e08d0</t>
+  </si>
+  <si>
+    <t>Acceptance/Conformance criteria - Submit works over approvlas for Relevant NUO's where utilities found. Confirm approval to remove structure or protection requirements as per Aurecon DRG's</t>
+  </si>
+  <si>
+    <t>ad7fc044-92f7-5d5c-a8dd-a8635b14b5ea</t>
+  </si>
+  <si>
+    <t>Standard/Specification - Aurecon Civil Spec 4.5.5</t>
+  </si>
+  <si>
+    <t>1999a1fa-713a-54d0-af48-2c61e6fee695</t>
+  </si>
+  <si>
+    <t>5271d8c6-f4ce-5108-9f18-89fe660eb6e9</t>
+  </si>
+  <si>
+    <t>23c9e276-7ce3-5f1b-8b95-d141ac06afb9</t>
+  </si>
+  <si>
+    <t>e358d265-7e69-5b2e-97db-e32c35e3be0d</t>
+  </si>
+  <si>
+    <t>bcc1e6fd-6bb5-5c4b-b1fc-24d541659d67</t>
+  </si>
+  <si>
+    <t>69bb49fc-138a-501e-b026-26ca60951f73</t>
+  </si>
+  <si>
+    <t>8f2075a6-93c3-4171-89a1-c6aaf3bbfc36</t>
+  </si>
+  <si>
+    <t>MSQA - R</t>
+  </si>
+  <si>
+    <t>66a8b671-0afd-4fde-82a6-460171fbe408</t>
+  </si>
+  <si>
+    <t>6967eb8e-b19c-5a47-8b87-726c2f8c2120</t>
+  </si>
+  <si>
+    <t>c123a86c-52ab-55dc-a216-9ff5ba76e506</t>
+  </si>
+  <si>
+    <t>Standard/Specification - Aurecon Civil Spec 5.6.11</t>
+  </si>
+  <si>
+    <t>b73ba664-789b-5051-b7ad-45d79bcbd8b1</t>
+  </si>
+  <si>
+    <t>Verifying Document - QA sheet</t>
+  </si>
+  <si>
+    <t>0cb73695-5357-5514-8deb-dd4ec0b3e911</t>
+  </si>
+  <si>
+    <t>Frequency - Every 20m or as agreed by the Engineer</t>
+  </si>
+  <si>
+    <t>b5501518-f598-5787-9396-834367a05d87</t>
+  </si>
+  <si>
+    <t>49fe3fb1-4315-5ad3-ad8c-6bf9a802a849</t>
+  </si>
+  <si>
+    <t>7a6bbf69-3722-543b-9c6a-cae672a27843</t>
+  </si>
+  <si>
+    <t>58d99fa0-7bf2-5f9c-824a-8777f76a3a7b</t>
+  </si>
+  <si>
+    <t>3d12b03a-ef00-5af4-b4ae-cc7aa50d7b03</t>
+  </si>
+  <si>
+    <t>8d776011-757b-4c7d-ba22-76a7142683f3</t>
+  </si>
+  <si>
+    <t>105a52fd-100d-4ac2-bf44-9f39f2e41bbc</t>
+  </si>
+  <si>
+    <t>e916c287-c22f-5d1e-9d58-fe4e9c726d58</t>
+  </si>
+  <si>
+    <t>Acceptance/Conformance criteria - Pavement Subgrade tolerance +/-10mm from design subgrade level (or as applicable with existing services). Excavation depth must be at least the design pavement depth for LMC locations. Subgrade shape as per survey set out. To be verified on site.</t>
+  </si>
+  <si>
+    <t>36bd24cf-d0e4-5cf7-8fa9-aa12cac87c91</t>
+  </si>
+  <si>
+    <t>Standard/Specification - Aurecon Civil Spec 5.6.9</t>
+  </si>
+  <si>
+    <t>3224cd23-42b2-5c14-b651-61d9c865a532</t>
+  </si>
+  <si>
+    <t>Verifying Document - As builts</t>
+  </si>
+  <si>
+    <t>e61235a8-c42a-5b20-a0b2-5686ea754d47</t>
+  </si>
+  <si>
+    <t>Frequency - Each Subgrade section</t>
+  </si>
+  <si>
+    <t>ec3c57b4-acd6-58ec-8807-d1999f868b3d</t>
+  </si>
+  <si>
+    <t>cfdeb5f7-ba5e-548b-9ef9-9f4c1f8d8350</t>
+  </si>
+  <si>
+    <t>e752214e-25c9-50f7-b496-419c32901325</t>
+  </si>
+  <si>
+    <t>b948f073-ad29-5d4f-994d-d2dbd6c098ff</t>
+  </si>
+  <si>
+    <t>cf246ba4-958d-5948-9c74-a4367d067a64</t>
+  </si>
+  <si>
+    <t>MSQA - W</t>
+  </si>
+  <si>
+    <t>5dc78e02-6d86-4aba-ae0f-3e099cc405ba</t>
+  </si>
+  <si>
+    <t>67ea49e8-12b8-4a0b-b844-fe4bb1ad7514</t>
+  </si>
+  <si>
+    <t>f429d50b-6a9c-52d5-b93b-094a94edf37d</t>
+  </si>
+  <si>
+    <t>Acceptance/Conformance criteria - Construct lifts between 2.5 to 5X maximum stone size to ensure good compaction (100-200m). Surface shape, finished and tolerances shall comply with requirments of TNZ B/02- -25mm/+5mm to design FL measured between centreline and pavement edge</t>
+  </si>
+  <si>
+    <t>e04543af-13d1-53a9-960b-7a246a320236</t>
+  </si>
+  <si>
+    <t>Standard/Specification - Aurecon Civil Spec 6.7.4 TNZ B/2</t>
+  </si>
+  <si>
+    <t>b0cefe15-e409-53c2-acb1-16df6b333028</t>
+  </si>
+  <si>
+    <t>Verifying Document - QA cheetsb and as built survey</t>
+  </si>
+  <si>
+    <t>09051cfe-7831-5841-8af3-0186266728a2</t>
+  </si>
+  <si>
+    <t>Frequency - Every 10m for each section of basecourse</t>
+  </si>
+  <si>
+    <t>db622578-3d9c-5f4d-b6a9-ad7c13202883</t>
+  </si>
+  <si>
+    <t>f7952678-1b48-5f69-bb4a-82d252c09954</t>
+  </si>
+  <si>
+    <t>6d135904-c407-5793-b3c9-85912964e24d</t>
+  </si>
+  <si>
+    <t>25cdad00-f174-5d9f-85bc-ffa986fae855</t>
+  </si>
+  <si>
+    <t>cc6c4c16-be5d-5560-ae5e-b27f302e9030</t>
+  </si>
+  <si>
+    <t>e8a46aa4-7ee5-4c17-b04c-fe483812b9a2</t>
+  </si>
+  <si>
+    <t>b49b8c92-b5fb-49d8-b24c-cb823df44de0</t>
+  </si>
+  <si>
+    <t>a9f324de-bd5b-5cee-a141-1555dc18f668</t>
+  </si>
+  <si>
+    <t>9ec98ca9-ae5f-5859-a4e6-8cad6a3b4d2b</t>
+  </si>
+  <si>
+    <t>Standard/Specification - Aurecon Spec 6.1 and GCOR-0042</t>
+  </si>
+  <si>
+    <t>10ddb4d3-d9b1-5a09-9cef-8e8c717acd68</t>
+  </si>
+  <si>
+    <t>Verifying Document - QA sheets</t>
+  </si>
+  <si>
+    <t>da51b825-3d34-56d4-b6e0-0f674fcefa37</t>
+  </si>
+  <si>
+    <t>e8bb3690-474a-5ea4-bcdf-acbe99d0c406</t>
+  </si>
+  <si>
+    <t>61b2bdc2-d69a-5eed-b212-3dc84c75a6d9</t>
+  </si>
+  <si>
+    <t>53bde335-ba9d-5aee-be44-c25e47590d6a</t>
+  </si>
+  <si>
+    <t>7c211728-44c9-5890-8b98-331deaeb3730</t>
+  </si>
+  <si>
+    <t>0c0056b9-c5a6-59be-b046-05eac96dc016</t>
+  </si>
+  <si>
+    <t>15919276-5ce0-45ef-a71a-3f3ef1553e3e</t>
+  </si>
+  <si>
+    <t>f5e9fc48-a751-49b6-8a7d-499945da7310</t>
+  </si>
+  <si>
+    <t>SECTION 6 - POST CONSTRUCTION (FINAL INSPECTION AND HANDOVER)</t>
+  </si>
+  <si>
+    <t>Standard/Specification - Downer</t>
+  </si>
+  <si>
+    <t>Verification Activity: By - ENG</t>
+  </si>
+  <si>
+    <t>Engineer Rep Signature - H</t>
+  </si>
+  <si>
+    <t>Frequency - Post Construction</t>
+  </si>
+  <si>
+    <t>7e2902a8-18bb-4ae2-a431-c1153a039f15</t>
+  </si>
+  <si>
+    <t>96d60e2f-df8b-500c-808a-d7efa178179d</t>
+  </si>
+  <si>
+    <t>Acceptance/Conformance criteria - Ensure all items have been installed create a Redline Drawings for Asbuilt creation noting all changes with RFI numbers and departures in red pen</t>
+  </si>
+  <si>
+    <t>4ab4d7b8-426a-5740-86e9-2e08dd5cf791</t>
+  </si>
+  <si>
+    <t>2b47d52c-057f-5469-8bd2-f28a5deedd77</t>
+  </si>
+  <si>
+    <t>Verifying Document - Redlines</t>
+  </si>
+  <si>
+    <t>c2ab2b52-5f78-5a70-8cbb-0b022927816f</t>
+  </si>
+  <si>
+    <t>964ff206-1400-55a6-896d-5be8ce513a48</t>
+  </si>
+  <si>
+    <t>b7953067-92f9-5fee-8d72-0a7a221f8648</t>
+  </si>
+  <si>
+    <t>ed8ddaff-fcd0-5c4c-abb1-3128c2efba6b</t>
+  </si>
+  <si>
+    <t>9500d528-efaf-57f9-9d0c-bc1ba877ee5e</t>
+  </si>
+  <si>
+    <t>f94fce0f-a5ce-5ac6-bd9c-d2c97a4a293e</t>
+  </si>
+  <si>
+    <t>1c35f19b-7914-417b-a22d-bd1420370cb1</t>
+  </si>
+  <si>
+    <t>004a2451-3e4e-4606-91ef-32f2246c79b9</t>
+  </si>
+  <si>
+    <t>SECTION 7 - SIGN OFF</t>
+  </si>
+  <si>
+    <t>b3f4e0fc-2cd1-4f1d-91dc-8bd201bbea15</t>
+  </si>
+  <si>
+    <t>Customer Release Granted:</t>
+  </si>
+  <si>
+    <t>924c9d68-8da7-5b29-b401-9029b5153107</t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>Certificate Number:</t>
+  </si>
+  <si>
+    <t>893dd132-4466-5fa3-9f1e-59f744167c3f</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>f259dc66-0893-47f8-bcb5-4019e2ca4f59</t>
+  </si>
+  <si>
+    <t>Sign Off</t>
+  </si>
+  <si>
+    <t>b80d3e11-ad18-4a7a-987f-e939491cf2a6</t>
+  </si>
+  <si>
+    <t>Client Final Inspection - the signature below verifies that this ITP has been completed in accordance with the Specifications and verifies lot compliance.</t>
+  </si>
+  <si>
+    <t>eeff83fe-9d68-575e-86dc-0075572d98c4</t>
+  </si>
+  <si>
+    <t>Contractor's Rep Name:</t>
+  </si>
+  <si>
+    <t>108f4bac-0c48-5ebb-ba75-908597fe59b4</t>
+  </si>
+  <si>
+    <t>Engineer's Rep. Name:</t>
+  </si>
+  <si>
+    <t>135764f4-ce24-5f2f-a59e-f31922c27e46</t>
+  </si>
+  <si>
+    <t>d3d09d47-7640-41eb-acaf-ad6bf2f694ef</t>
+  </si>
+  <si>
+    <t>Add Signature</t>
+  </si>
+  <si>
+    <t>DN1211-003 ITP Earthworks (Excavation, Subgrade, Sub-Base) Rev4</t>
+  </si>
+  <si>
+    <t>SECTION 5 - CONSTRUCTION ACTIVITY (Site Clearance)</t>
+  </si>
+  <si>
+    <t>SECTION 5 - CONSTRUCTION ACTIVITY (Excavation)</t>
+  </si>
+  <si>
+    <t>SECTION 5 - CONSTRUCTION ACTIVITY (Sub-Base)</t>
+  </si>
+  <si>
+    <t>5.1 - Demolition and removal of obstructions</t>
+  </si>
+  <si>
+    <t>Verifying Document - Email confirmation where applicable or works over permit aligning with the consent</t>
+  </si>
+  <si>
+    <t>5.2 - Subgrade Testing</t>
+  </si>
+  <si>
+    <t>Acceptance/Conformance criteria - Contractor to Confirm subgrade strength and report to Engineer via Inspection. Clegg to be ≥ 10 value. Refer DN1211-AURECON-GCO-0155</t>
+  </si>
+  <si>
+    <t>5.3 - Line and Level of subgrade</t>
+  </si>
+  <si>
+    <t>6.1 - Redline Drawings</t>
+  </si>
+  <si>
+    <t>5.4 - Sub-Base Level and Shape</t>
+  </si>
+  <si>
+    <t>5.5 - Sub base Compaction</t>
+  </si>
+  <si>
+    <t>Acceptance/Conformance criteria - Clegg testing of Sub-base course to achieve CIV 25+. Refer- DN1211-Aurecon-GCO-0013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,8 +624,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +813,42 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -524,8 +1012,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="19" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -901,18 +1403,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC82424-48FB-42A9-BBD7-D5F7213BFFEF}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="159" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="199" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60.85546875" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -938,7 +1443,894 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G81" xr:uid="{2FC82424-48FB-42A9-BBD7-D5F7213BFFEF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>